--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>价格库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输变电-细分市场签约 + 输变电-细分产品签约情况及趋势 两个sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未履约订单情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盈利分析--完工产品盈利能力水平测算 + 盈利分析-其他sheet里面第二和第三个表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品质量情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +147,48 @@
   </si>
   <si>
     <t>新能源展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">盈利分析--完工产品盈利能力水平测算 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盈利分析-其他sheet里面第二和第三个表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">输变电-细分市场签约 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输变电-细分产品签约情况及趋势 两个sheet</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +234,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +262,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,48 +283,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,12 +359,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,9 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -590,336 +668,326 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="13"/>
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="E5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="K5" s="15"/>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="K7" s="18"/>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E24" s="14"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E25" s="14"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="E28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="E29" s="17"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="E30" s="17"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="I16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E24" s="5"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="5"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="E26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="G48" s="5"/>
-      <c r="I48" s="3"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="E49" s="3"/>
-      <c r="G49" s="5"/>
-      <c r="I49" s="3"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="E49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -930,6 +998,24 @@
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="E12:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输变电产值/产量完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输变电-产值完成情况 + 输变电-产量完成情况 两个sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +185,10 @@
       </rPr>
       <t>输变电-细分产品签约情况及趋势 两个sheet</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电产值/产量完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,6 +305,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,40 +337,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -668,218 +670,218 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="7"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="K5" s="15"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="K5" s="4"/>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="K7" s="18"/>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="E15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="E17" s="11" t="s">
         <v>10</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="I18" s="19"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="I19" s="19"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>36</v>
+      <c r="G20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>14</v>
+      <c r="E23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E24" s="14"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="14"/>
-      <c r="G25" s="4"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="E28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="E28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="19"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="4"/>
+      <c r="E30" s="10"/>
+      <c r="G30" s="19"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -895,38 +897,38 @@
       <c r="C34" s="9"/>
     </row>
     <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="E36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="E37" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -942,52 +944,64 @@
       <c r="C43" s="9"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="E47" s="4" t="s">
+      <c r="C47" s="7"/>
+      <c r="E47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="I47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="7"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="E48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="E49" s="4"/>
-      <c r="G49" s="7"/>
-      <c r="I49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="E49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1004,18 +1018,6 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能源-周边市场销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能源-周边市场价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,20 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">盈利分析--完工产品盈利能力水平测算 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>盈利分析-其他sheet里面第二和第三个表</t>
-    </r>
+    <t>输变电产值/产量完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,7 +171,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输变电产值/产量完成情况</t>
+    <r>
+      <t xml:space="preserve">盈利分析--完工产品盈利能力水平测算 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盈利分析-其他sheet里面第二和第三个表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场
+销量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +238,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -296,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,46 +317,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,9 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -670,209 +680,209 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="15"/>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="G17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="18"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="I19" s="18"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="18"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E24" s="16"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E25" s="16"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E26" s="20" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E24" s="12"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="12"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="E26" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="E27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="7"/>
+      <c r="E28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="8"/>
       <c r="G29" s="19"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="G30" s="19"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -881,127 +891,115 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="7"/>
+      <c r="E37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="E37" s="10" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="15"/>
+      <c r="E47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="E48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="I48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="I49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1018,6 +1016,18 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,6 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -325,41 +334,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,162 +677,162 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="10"/>
+      <c r="E13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="I18" s="19"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="18"/>
-      <c r="G21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E24" s="16"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="16"/>
-      <c r="G25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -843,46 +840,46 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="10"/>
+      <c r="E28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="G30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -895,111 +892,123 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="E37" s="8" t="s">
+      <c r="C37" s="10"/>
+      <c r="E37" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="E47" s="11" t="s">
+      <c r="C47" s="8"/>
+      <c r="E47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="E48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="I48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="E49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="I49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1016,18 +1025,6 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -155,23 +155,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">输变电-细分市场签约 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>输变电-细分产品签约情况及趋势 两个sheet</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">盈利分析--完工产品盈利能力水平测算 + </t>
     </r>
     <r>
@@ -192,12 +175,28 @@
 销量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">输变电-细分市场签约 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输变电-细分产品签约情况及趋势 两个sheet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -245,7 +244,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -305,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,43 +318,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,9 +659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" customWidth="1"/>
@@ -676,210 +673,210 @@
     <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="17"/>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="G5" s="11"/>
+    <row r="5" spans="2:13">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="6" spans="2:13">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E12" s="14" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="12" spans="2:13" ht="25.5">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:13" ht="27">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="E17" s="12" t="s">
+    <row r="17" spans="2:9" ht="13.5" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="16" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="E20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="61.5" customHeight="1">
+      <c r="E21" s="18"/>
+      <c r="G21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="E23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24" s="15"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="15"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" ht="67.5">
+      <c r="E26" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E24" s="12"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E25" s="12"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="E26" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="14" t="s">
+    <row r="27" spans="2:9" ht="25.5">
+      <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" ht="13.5" customHeight="1">
+      <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="G28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" ht="27">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -891,124 +888,112 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="14" t="s">
+    <row r="32" spans="2:9">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="36" spans="2:9" ht="25.5">
+      <c r="E36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="8"/>
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+    <row r="38" spans="2:9">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="7" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="17"/>
+      <c r="E47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="48" spans="2:9">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="E48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="E49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1025,6 +1010,18 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,7 +1035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,7 +1048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,6 +318,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -326,32 +332,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -674,159 +680,159 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="10"/>
+      <c r="E13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:13" ht="27">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="18"/>
-      <c r="G21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="E24" s="15"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="E25" s="15"/>
-      <c r="G25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="67.5">
       <c r="E26" s="6" t="s">
@@ -837,46 +843,46 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="10"/>
+      <c r="E28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" ht="27">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -889,111 +895,123 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="C37" s="10"/>
+      <c r="E37" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="E47" s="12" t="s">
+      <c r="C47" s="8"/>
+      <c r="E47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="E48" s="12"/>
-      <c r="G48" s="13"/>
-      <c r="I48" s="12"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="E49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="I49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1010,18 +1028,6 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,46 +318,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,9 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -680,159 +681,159 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="17"/>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:13" ht="27">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="G21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="E24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="E25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="67.5">
       <c r="E26" s="6" t="s">
@@ -843,46 +844,46 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" ht="27">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="E31" t="s">
         <v>22</v>
       </c>
@@ -895,123 +896,111 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="8"/>
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="E40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="E47" s="18" t="s">
+      <c r="C47" s="17"/>
+      <c r="E47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="I48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="E48" s="21"/>
+      <c r="G48" s="13"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="I49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1028,6 +1017,18 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>价格库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,18 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应收账款管报汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货管报汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗物资管报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(盈利分析-未履约订单毛利水平测算 + 输变电-订单储备及排产情况)两个sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输变电市场签约情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未履约订单情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完工产品情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(盈利分析-其他sheet里面第一个表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,18 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务-应交税费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务-产品大类毛利表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务-经营性现金流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输变电产业经营管报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,22 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成本分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本分析(能源)sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场销量sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能源-周边市场价格sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新能源存货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新能源存货sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +91,6 @@
   </si>
   <si>
     <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输变电产值/产量完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,11 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能源-周边市场
-销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">输变电-细分市场签约 + </t>
     </r>
@@ -191,12 +126,162 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>应收账款管报汇总
+yszkgb/show.do
+yszkgb/entry.do
+yszkgb/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗物资管报
+dzwzgb/show.do
+dzwzgb/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电产值/产量完成情况
+sbdczclwcqk/show.do
+sbdczclwcqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电市场签约情况
+sbdscqyqk/show.do
+sbdscqyqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场
+销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场销量sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场情况
+nyzbscqk/show.do
+nyzbscqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源存货
+xnychFrame/show.do
+xnychFrame/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务-应交税费
+cwyjsf/show.do
+cwyjsf/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未履约订单情况
+wlydd/show.do
+wlydd/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">财务-产品大类毛利表
+cwcpdlml/show.do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cwcpdlml/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">财务-经营性现金流
+cwgbjyxxjl/show.do
+cwgbjyxxjl/entry.do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cwgbjyxxjl/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">完工产品情况
+wgcpqk/show.do
+wgcpqk/entry.do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wgcpqk/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">存货管报汇总
+chgb/show.do
+chgb/entry.do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chgb/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本分析
+cbfx/show.do
+cbfx/entry.do
+cbfx/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本分析(能源)sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +329,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -303,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -324,6 +417,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,18 +428,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,12 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,231 +758,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
     <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="18"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="E13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>6</v>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="E14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:13" ht="27">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>33</v>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="E18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" ht="26.25" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="61.5" customHeight="1">
+      <c r="E21" s="20"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="14" t="s">
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24" s="9"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" ht="31.5" customHeight="1">
+      <c r="E25" s="9"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" ht="54">
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="19"/>
-      <c r="G21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="E23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="E24" s="15"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="E25" s="15"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="2:9" ht="67.5">
-      <c r="E26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="E29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" ht="28.5" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" ht="27">
+      <c r="E30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -908,38 +1005,38 @@
       <c r="C34" s="8"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -955,52 +1052,52 @@
       <c r="C43" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="E47" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>18</v>
+      <c r="C47" s="18"/>
+      <c r="E47" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="E48" s="21"/>
-      <c r="G48" s="13"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="E49" s="21"/>
-      <c r="G49" s="13"/>
-      <c r="I49" s="12"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="E48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="2:9" ht="46.5" customHeight="1">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="E49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1029,6 +1126,7 @@
     <mergeCell ref="E47:E49"/>
     <mergeCell ref="G47:G49"/>
     <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H28:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -190,25 +190,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">财务-产品大类毛利表
-cwcpdlml/show.do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cwcpdlml/nctest.do</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">财务-经营性现金流
 cwgbjyxxjl/show.do
 cwgbjyxxjl/entry.do
@@ -223,26 +204,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>cwgbjyxxjl/nctest.do</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">完工产品情况
-wgcpqk/show.do
-wgcpqk/entry.do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wgcpqk/nctest.do</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,12 +237,38 @@
     <t>成本分析(能源)sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">完工产品情况
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wgcpqk/show.do
+wgcpqk/entry.do
+wgcpqk/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务-产品大类毛利表
+cwcpdlml/show.do
+cwcpdlml/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,14 +316,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -411,15 +390,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +416,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,21 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G47" sqref="G47:G49"/>
     </sheetView>
   </sheetViews>
@@ -773,159 +752,159 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:13" ht="30" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:13" ht="27">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="20"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="E23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="E24" s="9"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:9" ht="31.5" customHeight="1">
-      <c r="E25" s="9"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="54">
       <c r="E26" s="6" t="s">
@@ -936,53 +915,53 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="E28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="C28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>26</v>
@@ -993,111 +972,124 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="C37" s="10"/>
+      <c r="E37" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="E40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="8"/>
+      <c r="E47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="E48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="I48" s="14"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="2:9" ht="46.5" customHeight="1">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="I49" s="14"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1114,19 +1106,6 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="H28:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>价格库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,84 +127,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大宗物资管报
+dzwzgb/show.do
+dzwzgb/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电产值/产量完成情况
+sbdczclwcqk/show.do
+sbdczclwcqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输变电市场签约情况
+sbdscqyqk/show.do
+sbdscqyqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场
+销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场销量sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源-周边市场情况
+nyzbscqk/show.do
+nyzbscqk/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源存货
+xnychFrame/show.do
+xnychFrame/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未履约订单情况
+wlydd/show.do
+wlydd/entry.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本分析(能源)sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>应收账款管报汇总
 yszkgb/show.do
 yszkgb/entry.do
 yszkgb/nctest.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗物资管报
-dzwzgb/show.do
-dzwzgb/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输变电产值/产量完成情况
-sbdczclwcqk/show.do
-sbdczclwcqk/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输变电市场签约情况
-sbdscqyqk/show.do
-sbdscqyqk/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场
-销量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场销量sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源-周边市场情况
-nyzbscqk/show.do
-nyzbscqk/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新能源存货
-xnychFrame/show.do
-xnychFrame/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务-应交税费
-cwyjsf/show.do
-cwyjsf/nctest.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未履约订单情况
-wlydd/show.do
-wlydd/entry.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">财务-经营性现金流
-cwgbjyxxjl/show.do
-cwgbjyxxjl/entry.do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cwgbjyxxjl/nctest.do</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,17 +203,6 @@
       </rPr>
       <t>chgb/nctest.do</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本分析
-cbfx/show.do
-cbfx/entry.do
-cbfx/nctest.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本分析(能源)sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,17 +226,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成本分析
+cbfx/show.do
+cbfx/entry.do
+cbfx/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务-应交税费
+cwyjsf/show.do
+cwyjsf/nctest.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>财务-产品大类毛利表
 cwcpdlml/show.do
 cwcpdlml/nctest.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">财务-经营性现金流
+cwgbjyxxjl/show.do
+cwgbjyxxjl/entry.do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cwgbjyxxjl/nctest.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yszkgb/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>chgb/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>wgcpqk/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>cbfx/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>cwyjsf/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>cwcpdlml/nctest.do?date=2015-1-1</t>
+  </si>
+  <si>
+    <t>cwgbjyxxjl/nctest.do?date=2015-1-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +340,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,10 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -390,50 +420,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -735,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M53"/>
+  <dimension ref="B4:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -752,159 +784,159 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:13" ht="30" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:13" ht="27">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="E17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="E23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="E24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:9" ht="31.5" customHeight="1">
-      <c r="E25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:9" ht="54">
       <c r="E26" s="6" t="s">
@@ -915,56 +947,56 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -972,124 +1004,146 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="E37" s="12" t="s">
-        <v>29</v>
+      <c r="C37" s="8"/>
+      <c r="E37" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="E40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="E47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="20" t="s">
+      <c r="C47" s="18"/>
+      <c r="E47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="I48" s="19"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="E48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="2:9" ht="46.5" customHeight="1">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="I49" s="19"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="E49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="E54" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="E56" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1106,10 +1160,27 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H28:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E54" r:id="rId1" display="http://192.168.7.22/BusinessManagement/yszkgb/nctest.do?date=2015-1-1"/>
+    <hyperlink ref="E56" r:id="rId2" display="http://192.168.7.22/BusinessManagement/wgcpqk/nctest.do?date=2015-1-1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TBEA/BusinessPerformance/Documentation/UI.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/UI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>价格库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,27 +262,6 @@
       <t>cwgbjyxxjl/nctest.do</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yszkgb/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>chgb/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>wgcpqk/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>cbfx/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>cwyjsf/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>cwcpdlml/nctest.do?date=2015-1-1</t>
-  </si>
-  <si>
-    <t>cwgbjyxxjl/nctest.do?date=2015-1-1</t>
   </si>
 </sst>
 </file>
@@ -419,6 +398,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,9 +412,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,6 +426,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,22 +441,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,11 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M60"/>
+  <dimension ref="B4:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -784,159 +761,159 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="12" spans="2:13" ht="25.5">
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="11"/>
+      <c r="E13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:13" ht="30" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:13" ht="27">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="61.5" customHeight="1">
-      <c r="E21" s="20"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="E24" s="9"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:9" ht="31.5" customHeight="1">
-      <c r="E25" s="9"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="13"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:9" ht="54">
       <c r="E26" s="6" t="s">
@@ -947,51 +924,51 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="25.5">
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="11"/>
+      <c r="E28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="E31" t="s">
         <v>30</v>
       </c>
@@ -1004,146 +981,165 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="36" spans="2:9" ht="25.5">
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="C37" s="11"/>
+      <c r="E37" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="E40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="9"/>
+      <c r="E47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="E48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="I48" s="14"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="E48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="2:9" ht="46.5" customHeight="1">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="I49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="E49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="E54" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="E55" t="s">
-        <v>39</v>
-      </c>
+      <c r="E54" s="7"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="E56" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="E57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="E58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-    </row>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="60" spans="2:9" ht="14.25" customHeight="1"/>
+    <row r="61" spans="2:9" ht="14.25" customHeight="1"/>
+    <row r="62" spans="2:9" ht="14.25" customHeight="1"/>
+    <row r="63" spans="2:9" ht="14.25" customHeight="1"/>
+    <row r="64" spans="2:9" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B4:C10"/>
     <mergeCell ref="B13:C19"/>
     <mergeCell ref="B47:C53"/>
@@ -1160,27 +1156,10 @@
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="H28:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1" display="http://192.168.7.22/BusinessManagement/yszkgb/nctest.do?date=2015-1-1"/>
-    <hyperlink ref="E56" r:id="rId2" display="http://192.168.7.22/BusinessManagement/wgcpqk/nctest.do?date=2015-1-1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
